--- a/biology/Zoologie/Léon_Danchin/Léon_Danchin.xlsx
+++ b/biology/Zoologie/Léon_Danchin/Léon_Danchin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Danchin</t>
+          <t>Léon_Danchin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Léon Danchin, né à Lille le 21 juin 1887, et mort à Bergues le 4 août 1938, est un  sculpteur, peintre animalier et graveur français. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Danchin</t>
+          <t>Léon_Danchin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Léon Danchin est né à Lille, rue de Fleurus, second d'une famille de six enfants dans un milieu aisé. Fils d'Albert Danchin, un entrepreneur du tissage, il est l’arrière-petit-fils de Côme-Damien Degland (1787-1858), un célèbre chirurgien et ornithologue, fondateur du musée d'histoire naturelle de Lille. Sa mère Marguerite, maîtresse de maison accomplie, reçoit fréquemment dans la grande maison de Lille. 
 Léon Danchin fait des études au collège Jeanne d’Arc de Lille. Très doué pour le dessin, il s’inscrit à l'école des beaux-arts de Lille où il est élève de Jean Joire, lui-même animalier. Reçu au Salon de Lille de 1906, il y expose fréquemment par la suite et fit des bustes de personnalités lilloises. Mobilisé en 1914 lors de la Première Guerre mondiale au 351e régiment d'infanterie, il est décoré de la croix de guerre et cité à l’ordre du régiment.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Danchin</t>
+          <t>Léon_Danchin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Si ses sculptures sont rares, le peintre aquarelliste animalier en revanche a atteint une réputation européenne. Environ trois-cents de ses œuvres sont connues, notamment par le biais de la lithographie et de la gravure, particulièrement cynégétique[1]. L'observation de l'attitude (chiens, gibier) est sans défaut, ce qui n'étonne pas chez ce chasseur passionné.  Environ 300 gravures ou lithographies et une trentaine de bronzes en allant sur http://leon.danchin.free.fr/  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si ses sculptures sont rares, le peintre aquarelliste animalier en revanche a atteint une réputation européenne. Environ trois-cents de ses œuvres sont connues, notamment par le biais de la lithographie et de la gravure, particulièrement cynégétique. L'observation de l'attitude (chiens, gibier) est sans défaut, ce qui n'étonne pas chez ce chasseur passionné.  Environ 300 gravures ou lithographies et une trentaine de bronzes en allant sur http://leon.danchin.free.fr/  
 </t>
         </is>
       </c>
